--- a/data/outputs/OR/13.xlsx
+++ b/data/outputs/OR/13.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ90"/>
+  <dimension ref="A1:BR90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +938,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1160,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1370,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1576,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1773,6 +1782,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4545152</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +1992,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2191,6 +2206,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2412,6 +2428,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2597,6 +2614,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2683,7 +2701,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Li, Haobin/0000-0001-5537-2395; </t>
+          <t>Li, Haobin/0000-0001-5537-2395;</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr"/>
@@ -2810,6 +2828,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3042,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3240,6 +3260,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3453,6 +3474,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3666,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3887,6 +3910,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4104,6 +4128,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4317,6 +4342,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4530,6 +4556,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4735,6 +4762,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4956,6 +4984,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5177,6 +5206,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5398,6 +5428,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5619,6 +5650,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5836,6 +5868,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6053,6 +6086,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6258,6 +6292,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6479,6 +6514,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6696,6 +6732,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6909,6 +6946,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7122,6 +7160,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7339,6 +7378,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7552,6 +7592,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7769,6 +7810,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7974,6 +8016,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8191,6 +8234,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8392,6 +8436,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8609,6 +8654,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8814,6 +8860,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9031,6 +9078,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9244,6 +9292,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9457,6 +9506,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9670,6 +9720,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9883,6 +9934,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10088,6 +10140,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10297,6 +10350,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10510,6 +10564,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10727,6 +10782,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10944,6 +11000,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11153,6 +11210,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11358,6 +11416,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11563,6 +11622,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11768,6 +11828,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11981,6 +12042,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12190,6 +12252,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12395,6 +12458,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12600,6 +12664,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12817,6 +12882,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13038,6 +13104,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3726949</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13251,6 +13322,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13464,6 +13536,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13677,6 +13750,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13890,6 +13964,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14103,6 +14178,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14320,6 +14396,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14529,6 +14606,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14746,6 +14824,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14963,6 +15042,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15184,6 +15264,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15397,6 +15478,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15610,6 +15692,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15827,6 +15910,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16032,6 +16116,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16245,6 +16330,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16458,6 +16544,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16671,6 +16758,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16892,6 +16980,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17105,6 +17194,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17322,6 +17412,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17539,6 +17630,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17744,6 +17836,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17949,6 +18042,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18162,6 +18256,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18375,6 +18470,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18588,6 +18684,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18801,6 +18898,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19006,6 +19104,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19211,6 +19310,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19424,6 +19524,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19629,6 +19730,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
